--- a/Defence2D/Game_Design/테이블/SkillData.xlsx
+++ b/Defence2D/Game_Design/테이블/SkillData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIDE_PROJECT\Defence2D\Game_Design\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SIDE_PROJECT\Defence2D\Game_Design\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8B31B-4DEA-4107-9351-9AE14E8B2B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA43F1-C420-4393-AB80-C6F1EB73E676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillData" sheetId="4" r:id="rId1"/>
-    <sheet name="스킬 효과" sheetId="2" r:id="rId2"/>
+    <sheet name="SkillData (csv용)" sheetId="4" r:id="rId1"/>
+    <sheet name="SkillData (작업용)" sheetId="6" r:id="rId2"/>
+    <sheet name="스킬 효과" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
     <author>Dongwoo</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FFCBF917-4FFC-409B-A2C5-E211A3F39F27}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{551FEF58-A6EC-4225-86DA-8A806DECC62C}">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,28 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>인덱스</t>
+          <t>레코드</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
         </r>
         <r>
           <rPr>
@@ -80,6 +102,415 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레코드가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어떤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>레코드인지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>식별하기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이름</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">. 
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기획자의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>관리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>편의를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>위한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>용도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>클라이언트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>등에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참조할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필요</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{24193921-9102-40F2-954D-B0CBE312348C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>&lt;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인덱스</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">&gt;
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -167,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{712CE28D-C60F-40E5-9024-500FC8D6B4B4}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7B4EC3FE-84E7-4A05-A8E8-554E132014AD}">
       <text>
         <r>
           <rPr>
@@ -312,437 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1B4BBC17-4D0E-4172-84B2-1BED7F8A8934}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>&lt;</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">&gt;
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>해당</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>어떤</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>레코드인지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>식별하기</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>위한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">. 
-* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기획자의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>데이터</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>관리</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>편의를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>위한</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>용도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">.
-* </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>클라이언트</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>서버</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>참조할</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필요</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없음</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{4DCC4E8D-DADB-4718-AB6B-6B475097AABF}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{7403299B-492C-4BB3-9DCB-5755246F2FF5}">
       <text>
         <r>
           <rPr>
@@ -770,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6E8CCE54-66EE-4179-99EF-E15172CEC0E0}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5716B224-67E1-4D22-8552-BCF233BE586F}">
       <text>
         <r>
           <rPr>
@@ -985,7 +986,102 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">. </t>
+          <t>. (hit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>애니메이션이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료되었을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>떄</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
         <r>
           <rPr>
@@ -1157,7 +1253,102 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">. </t>
+          <t>. (hit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>애니메이션이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료되었을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
         <r>
           <rPr>
@@ -1329,11 +1520,106 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.</t>
+          <t>. (hit</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시점</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대상에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발사체가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적중했을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1EF273FE-0FB4-4D71-8A00-4B417B69DAD1}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9E80082D-9DB3-4735-8C1B-3BDFF6F8515D}">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{A6B3116A-D82E-4B99-B969-64A5C495533D}">
+    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{D63B0E2B-F2CA-4A13-A06A-F171DCF5C8CB}">
       <text>
         <r>
           <rPr>
@@ -1945,7 +2231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2712E619-7EC4-4941-BF6C-3EEFF4CD8AFE}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B2DD2E86-674A-47CA-9C68-0D3A8EF4C667}">
       <text>
         <r>
           <rPr>
@@ -2319,7 +2605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{6239A87A-3861-4E8C-8E5F-DF03A6C6DD8E}">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{7FE52380-6C36-422E-98FF-1DD074181BF0}">
       <text>
         <r>
           <rPr>
@@ -2732,7 +3018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{9C564591-69DE-4336-8281-79EED461B82B}">
+    <comment ref="J1" authorId="2" shapeId="0" xr:uid="{D0833479-7E20-4F19-9100-50FB8D365DC4}">
       <text>
         <r>
           <rPr>
@@ -3220,7 +3506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{310433B6-350A-44BE-A393-220D8487F5CF}">
+    <comment ref="K1" authorId="2" shapeId="0" xr:uid="{9DF369B1-2A10-400A-A237-40045C55E481}">
       <text>
         <r>
           <rPr>
@@ -3321,7 +3607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{024B5B52-2B33-49B7-AD70-9910CC57CEB1}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{5A41079B-FFB4-4463-B084-C56E178C4DC9}">
       <text>
         <r>
           <rPr>
@@ -3848,7 +4134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{1638C451-4F89-4883-9340-08A127CB788B}">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{F6C82B3F-0907-4C6B-AF49-EC6297B6000A}">
       <text>
         <r>
           <rPr>
@@ -4202,7 +4488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{56DFA7BA-18F8-49E6-8C53-17E4DC5DAE77}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{6FBA4B38-DAC0-4CEF-99BC-D2CC00595529}">
       <text>
         <r>
           <rPr>
@@ -4520,7 +4806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0EE17E54-1E51-4EEF-BEE6-B03C9CBF9899}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{7BFF00EF-76CC-4113-81D4-E5853314F7CD}">
       <text>
         <r>
           <rPr>
@@ -4838,7 +5124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{7AF219E3-ED49-490C-BAA7-7D0BEE10C7D6}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{4A585646-CAFA-47F8-A656-0C85F8FAC7EA}">
       <text>
         <r>
           <rPr>
@@ -5156,7 +5442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{E8E39943-6ACE-4136-9CCD-6E47D1F64B04}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{DF800030-EA3E-4AE7-80B9-85A88EF3EF5D}">
       <text>
         <r>
           <rPr>
@@ -5492,7 +5778,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>인덱스</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -5654,6 +5940,74 @@
   <si>
     <t>기능 코드</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>piercing_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6188,42 +6542,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9C4E02-3AC4-4172-9C6F-42D688F6031B}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9C4E02-3AC4-4172-9C6F-42D688F6031B}">
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="17">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="16">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="15">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>3</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>20001</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>20002</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>20003</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1554EE16-C4B3-4E4C-B9B1-BC00C52F7E74}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -6269,156 +7058,156 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="15">
-        <v>-1</v>
-      </c>
-      <c r="I2" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J2" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K2" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="16">
-        <v>1</v>
-      </c>
-      <c r="M2" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N2" s="15">
-        <v>0</v>
-      </c>
-      <c r="O2" s="15">
-        <v>0</v>
-      </c>
-      <c r="P2" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="15">
-        <v>-1</v>
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="A3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="10">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="11">
-        <v>2</v>
-      </c>
-      <c r="M3" s="11">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="N3" s="9">
-        <v>3</v>
-      </c>
-      <c r="O3" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="9">
+      <c r="F3" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="17">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="17">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="17">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="16">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="15">
         <v>0</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="O3" s="15">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
         <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <v>10001</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="10">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
-        <v>10</v>
-      </c>
-      <c r="K4" s="10">
-        <v>5</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>-1</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
       <c r="O4" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P4" s="9">
         <v>0</v>
@@ -6428,38 +7217,38 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>10003</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>31</v>
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9">
+        <v>10002</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="9">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>-1</v>
+      <c r="H5" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="I5" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J5" s="10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5" s="10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L5" s="11">
         <v>1</v>
@@ -6481,82 +7270,82 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>20001</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10003</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="G6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="7">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>-1</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="M6" s="11">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="9">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="9">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="9">
         <v>0</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="9">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>20002</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20001</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
         <v>-1</v>
       </c>
       <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>7</v>
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-1</v>
       </c>
       <c r="I7" s="7">
         <v>-1</v>
@@ -6587,29 +7376,29 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>20003</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20002</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>-1</v>
+      <c r="H8" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="I8" s="7">
         <v>-1</v>
@@ -6636,6 +7425,59 @@
         <v>0</v>
       </c>
       <c r="Q8" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6">
+        <v>20003</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>-1</v>
       </c>
     </row>
@@ -6647,7 +7489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FF3520-963A-464A-8C3B-FF97F9868DD9}">
   <dimension ref="B3:H7"/>
   <sheetViews>
